--- a/src/data/dato.xlsx
+++ b/src/data/dato.xlsx
@@ -420,15 +420,7 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/src/data/dato.xlsx
+++ b/src/data/dato.xlsx
@@ -420,7 +420,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/src/data/dato.xlsx
+++ b/src/data/dato.xlsx
@@ -420,15 +420,7 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/src/data/dato.xlsx
+++ b/src/data/dato.xlsx
@@ -420,7 +420,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/src/data/dato.xlsx
+++ b/src/data/dato.xlsx
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
     </row>

--- a/src/data/dato.xlsx
+++ b/src/data/dato.xlsx
@@ -420,7 +420,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/src/data/dato.xlsx
+++ b/src/data/dato.xlsx
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
